--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_98_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_98_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.1950651222693065, 1.9589705751936177]</t>
+          <t>[1.186595898082508, 1.9674397993804162]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.201323485133798e-10</v>
+        <v>2.190829739845412e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.201323485133798e-10</v>
+        <v>2.190829739845412e-10</v>
       </c>
       <c r="O2" t="n">
         <v>1.805079262422964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.528342372016656, 2.0818161528292727]</t>
+          <t>[1.515763422452733, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S2" t="n">
         <v>0.3222355376798922</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09467304303541346, 0.549798032324371]</t>
+          <t>[0.09469529772550178, 0.5497757776342826]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.006538473844001302</v>
+        <v>0.006533629903601623</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006538473844001302</v>
+        <v>0.006533629903601623</v>
       </c>
       <c r="W2" t="n">
         <v>17.88196196196253</v>
       </c>
       <c r="X2" t="n">
-        <v>16.77689689689743</v>
+        <v>16.7266666666672</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.98702702702763</v>
+        <v>19.03725725725786</v>
       </c>
     </row>
   </sheetData>
